--- a/InputFiles/CDS/TC01_CDS_phs001787.xlsx
+++ b/InputFiles/CDS/TC01_CDS_phs001787.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF15316-EB30-4A00-9BAA-B68DBA790C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF91F77-5387-4CB1-A87A-CDD7469BD71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="32100" yWindow="1080" windowWidth="21750" windowHeight="14520" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,29 +61,6 @@
   </si>
   <si>
     <t>TC01_CDS_phs001787_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT s.study_name) AS "Studies",
-    COUNT(DISTINCT sp.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT f.file_id) AS "Files"
-FROM 
-    df_participant sp
-JOIN 
-    df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN 
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_program p ON p.program_acronym = s."program.program_acronym"
-JOIN 
-    df_file f ON f."sample.sample_id" = smp.sample_id
-JOIN 
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_genomic_info gi ON gi."file.file_id" = f.file_id
-WHERE 
-    s.phs_accession = 'phs001787';</t>
   </si>
   <si>
     <t>WITH Distinct_Samples AS (
@@ -144,8 +121,30 @@
     study_name,
     phs_accession,
     gender
-ORDER BY participant_id desc
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT s.study_name) AS "Studies",
+    COUNT(DISTINCT sp.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT f.file_id) AS "Files"
+FROM 
+    df_participant sp
+JOIN 
+    df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN 
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_program p ON p.program_acronym = s."program.program_acronym"
+JOIN 
+    df_file f ON f."sample.sample_id" = smp.sample_id
+JOIN 
+    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_genomic_info gi ON gi."file.file_id" = f.file_id
+WHERE 
+    s.phs_accession = 'phs001787';</t>
   </si>
   <si>
     <t>SELECT
@@ -610,19 +609,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -639,15 +638,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -656,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +664,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -674,11 +673,11 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
   </sheetData>

--- a/InputFiles/CDS/TC01_CDS_phs001787.xlsx
+++ b/InputFiles/CDS/TC01_CDS_phs001787.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF91F77-5387-4CB1-A87A-CDD7469BD71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB71F2-30B7-40DD-8C47-A7E76A7F506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="1080" windowWidth="21750" windowHeight="14520" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="42075" yWindow="3075" windowWidth="27150" windowHeight="15375" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,8 @@
         ) smp
     ), '') AS "Sample Id",
     f1.file_type AS "File Type",
-    gi.library_strategy AS "Library Strategy"
+    gi.library_strategy AS "Library Strategy",
+    '' AS "Supplementary Files"
 FROM 
     df_study s
 INNER JOIN 
@@ -609,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/InputFiles/CDS/TC01_CDS_phs001787.xlsx
+++ b/InputFiles/CDS/TC01_CDS_phs001787.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF15316-EB30-4A00-9BAA-B68DBA790C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB71F2-30B7-40DD-8C47-A7E76A7F506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="42075" yWindow="3075" windowWidth="27150" windowHeight="15375" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,29 +61,6 @@
   </si>
   <si>
     <t>TC01_CDS_phs001787_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT s.study_name) AS "Studies",
-    COUNT(DISTINCT sp.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT f.file_id) AS "Files"
-FROM 
-    df_participant sp
-JOIN 
-    df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN 
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_program p ON p.program_acronym = s."program.program_acronym"
-JOIN 
-    df_file f ON f."sample.sample_id" = smp.sample_id
-JOIN 
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-JOIN 
-    df_genomic_info gi ON gi."file.file_id" = f.file_id
-WHERE 
-    s.phs_accession = 'phs001787';</t>
   </si>
   <si>
     <t>WITH Distinct_Samples AS (
@@ -144,8 +121,30 @@
     study_name,
     phs_accession,
     gender
-ORDER BY participant_id desc
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT s.study_name) AS "Studies",
+    COUNT(DISTINCT sp.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT f.file_id) AS "Files"
+FROM 
+    df_participant sp
+JOIN 
+    df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN 
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_program p ON p.program_acronym = s."program.program_acronym"
+JOIN 
+    df_file f ON f."sample.sample_id" = smp.sample_id
+JOIN 
+    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+JOIN 
+    df_genomic_info gi ON gi."file.file_id" = f.file_id
+WHERE 
+    s.phs_accession = 'phs001787';</t>
   </si>
   <si>
     <t>SELECT
@@ -192,7 +191,8 @@
         ) smp
     ), '') AS "Sample Id",
     f1.file_type AS "File Type",
-    gi.library_strategy AS "Library Strategy"
+    gi.library_strategy AS "Library Strategy",
+    '' AS "Supplementary Files"
 FROM 
     df_study s
 INNER JOIN 
@@ -610,19 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -639,15 +639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -674,11 +674,11 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
